--- a/data/baiana/Indicadores de mortalidade por DCNT - TME diabete melito por Faixa etaria DCNT segundo Ano 2011 a 2021.xlsx
+++ b/data/baiana/Indicadores de mortalidade por DCNT - TME diabete melito por Faixa etaria DCNT segundo Ano 2011 a 2021.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Downloads\Dados\geral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Desktop\git\cienciaDeDados\data\baiana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D219CE73-91CC-493B-AB32-16630D411D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEB4B2E-D57D-4C64-99E5-0D2E6FA8809A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores de mortalidade por " sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,6 +591,2870 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indicadores de mortalidade por '!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 a 29 anos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D915-48FC-934A-7DC70147EAF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1042862192"/>
+        <c:axId val="1042862608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1042862192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042862608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1042862608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042862192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indicadores de mortalidade por '!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30 a 69 anos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-666F-4787-A2E3-A55C97450180}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1042862192"/>
+        <c:axId val="1042862608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1042862192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042862608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1042862608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042862192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indicadores de mortalidade por '!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70 anos e mais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>375.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>351.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>339.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>315.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>303.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>303.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>298.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>294.39999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFD9-48BB-B565-BA6154B13922}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1042862192"/>
+        <c:axId val="1042862608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1042862192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042862608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1042862608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042862192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>321129</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19979378-93FB-4A24-AC14-A15D6947A057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139473</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD130EE9-C3F2-4E14-9381-398D3B191EE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE916757-6E86-4634-A5EF-35B004532C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -874,20 +3751,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,16 +3772,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,16 +3789,16 @@
         <v>2011</v>
       </c>
       <c r="B2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>40.6</v>
+      </c>
+      <c r="D2">
+        <v>375.9</v>
+      </c>
+      <c r="E2">
         <v>42.8</v>
-      </c>
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>40.6</v>
-      </c>
-      <c r="E2">
-        <v>375.9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,16 +3806,16 @@
         <v>2012</v>
       </c>
       <c r="B3">
+        <v>0.7</v>
+      </c>
+      <c r="C3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D3">
+        <v>351.7</v>
+      </c>
+      <c r="E3">
         <v>39.9</v>
-      </c>
-      <c r="C3">
-        <v>0.7</v>
-      </c>
-      <c r="D3">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E3">
-        <v>351.7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -946,16 +3823,16 @@
         <v>2013</v>
       </c>
       <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="C4">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D4">
+        <v>339.7</v>
+      </c>
+      <c r="E4">
         <v>39.5</v>
-      </c>
-      <c r="C4">
-        <v>0.7</v>
-      </c>
-      <c r="D4">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="E4">
-        <v>339.7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,16 +3840,16 @@
         <v>2014</v>
       </c>
       <c r="B5">
+        <v>0.9</v>
+      </c>
+      <c r="C5">
+        <v>33.1</v>
+      </c>
+      <c r="D5">
+        <v>315.39999999999998</v>
+      </c>
+      <c r="E5">
         <v>37.299999999999997</v>
-      </c>
-      <c r="C5">
-        <v>0.9</v>
-      </c>
-      <c r="D5">
-        <v>33.1</v>
-      </c>
-      <c r="E5">
-        <v>315.39999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,16 +3857,16 @@
         <v>2015</v>
       </c>
       <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>31.4</v>
+      </c>
+      <c r="D6">
+        <v>303.8</v>
+      </c>
+      <c r="E6">
         <v>36.299999999999997</v>
-      </c>
-      <c r="C6">
-        <v>0.8</v>
-      </c>
-      <c r="D6">
-        <v>31.4</v>
-      </c>
-      <c r="E6">
-        <v>303.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,16 +3874,16 @@
         <v>2016</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>309.8</v>
+      </c>
+      <c r="E7">
         <v>38.200000000000003</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>309.8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,16 +3891,16 @@
         <v>2017</v>
       </c>
       <c r="B8">
+        <v>0.9</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>298.7</v>
+      </c>
+      <c r="E8">
         <v>38.200000000000003</v>
-      </c>
-      <c r="C8">
-        <v>0.9</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>298.7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,16 +3908,16 @@
         <v>2018</v>
       </c>
       <c r="B9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9">
+        <v>34.9</v>
+      </c>
+      <c r="D9">
+        <v>303.2</v>
+      </c>
+      <c r="E9">
         <v>40.299999999999997</v>
-      </c>
-      <c r="C9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D9">
-        <v>34.9</v>
-      </c>
-      <c r="E9">
-        <v>303.2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1048,16 +3925,16 @@
         <v>2019</v>
       </c>
       <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>34.5</v>
+      </c>
+      <c r="D10">
+        <v>290.7</v>
+      </c>
+      <c r="E10">
         <v>39.9</v>
-      </c>
-      <c r="C10">
-        <v>0.9</v>
-      </c>
-      <c r="D10">
-        <v>34.5</v>
-      </c>
-      <c r="E10">
-        <v>290.7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,16 +3942,16 @@
         <v>2020</v>
       </c>
       <c r="B11">
+        <v>1.4</v>
+      </c>
+      <c r="C11">
+        <v>37.4</v>
+      </c>
+      <c r="D11">
+        <v>298.8</v>
+      </c>
+      <c r="E11">
         <v>43.1</v>
-      </c>
-      <c r="C11">
-        <v>1.4</v>
-      </c>
-      <c r="D11">
-        <v>37.4</v>
-      </c>
-      <c r="E11">
-        <v>298.8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,19 +3959,34 @@
         <v>2021</v>
       </c>
       <c r="B12">
+        <v>1.5</v>
+      </c>
+      <c r="C12">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D12">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="E12">
         <v>41.4</v>
-      </c>
-      <c r="C12">
-        <v>1.5</v>
-      </c>
-      <c r="D12">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="E12">
-        <v>294.39999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ECBCBC-BF74-4D13-8E86-5DE4618131FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>